--- a/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bill-back-end\API\wwwroot\docs\Template\ImportHoaDon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17921083-FA10-48ED-8D37-DF3B80132650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D895832F-A02C-4ADD-9781-8384B60C2F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hóa đơn giá trị gia tăng" sheetId="1" r:id="rId1"/>
     <sheet name="Nguyên tắc ghép dữ liệu" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="198">
   <si>
     <t>Số thứ tự hóa đơn (*)</t>
   </si>
@@ -636,9 +636,6 @@
     <t>Đơn vị</t>
   </si>
   <si>
-    <t>Đơn vị (*)</t>
-  </si>
-  <si>
     <t>Nhập Đơn vị lập hóa đơn</t>
   </si>
   <si>
@@ -651,7 +648,52 @@
 Nhập 4 nếu là Ghi chú/Diễn giải</t>
   </si>
   <si>
-    <t>HHDV4</t>
+    <t>NM3</t>
+  </si>
+  <si>
+    <t>NM4</t>
+  </si>
+  <si>
+    <t>NM5</t>
+  </si>
+  <si>
+    <t>NM6</t>
+  </si>
+  <si>
+    <t>NM7</t>
+  </si>
+  <si>
+    <t>NM9</t>
+  </si>
+  <si>
+    <t>NM10</t>
+  </si>
+  <si>
+    <t>HHDV3</t>
+  </si>
+  <si>
+    <t>HHDV6</t>
+  </si>
+  <si>
+    <t>HHDV7</t>
+  </si>
+  <si>
+    <t>HHDV9</t>
+  </si>
+  <si>
+    <t>HHDV11</t>
+  </si>
+  <si>
+    <t>HHDV12</t>
+  </si>
+  <si>
+    <t>HHDV16</t>
+  </si>
+  <si>
+    <t>HHDV17</t>
+  </si>
+  <si>
+    <t>HHDV18</t>
   </si>
 </sst>
 </file>
@@ -1202,91 +1244,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA64"/>
+  <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26.5703125" style="1"/>
-    <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
-    <col min="4" max="8" width="26.5703125" style="1"/>
-    <col min="9" max="9" width="26.5703125" style="2"/>
-    <col min="10" max="26" width="26.5703125" style="1"/>
-    <col min="28" max="16384" width="26.5703125" style="1"/>
+    <col min="1" max="7" width="26.5703125" style="1"/>
+    <col min="8" max="8" width="26.5703125" style="2"/>
+    <col min="9" max="24" width="26.5703125" style="1"/>
+    <col min="26" max="16384" width="26.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>139</v>
       </c>
@@ -1294,149 +1334,137 @@
         <v>167</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="N15" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="Q15" s="20" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="R15" s="20" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="S15" s="20" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="T15" s="20" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="U15" s="20" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="V15" s="20" t="s">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="W15" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="X15" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y15" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>179</v>
+      <c r="C16" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="26" t="s">
         <v>14</v>
       </c>
+      <c r="O16" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="P16" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q16" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="R16" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="28" t="s">
+      <c r="Q16" s="28" t="s">
         <v>8</v>
       </c>
+      <c r="R16" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="T16" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="V16" s="29" t="s">
         <v>15</v>
       </c>
+      <c r="U16" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="V16" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="W16" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="X16" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y16" s="30" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1585,34 +1613,31 @@
       <c r="A64" s="18"/>
     </row>
   </sheetData>
-  <dataValidations count="27">
+  <dataValidations count="24">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Không nhập thông tin tại cột này" sqref="A16:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập số thứ tự của hóa đơn._x000a_Lưu ý: Mỗi số thứ tự sẽ tương ứng với 1 hóa đơn_x000a_Trường dữ liệu bắt buộc._x000a_Không để trống." sqref="B16:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Ngày hóa đơn." sqref="E16 E17:E1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên người mua hàng" sqref="F17:F1048576 F16" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên khách hàng" sqref="G17:G1048576 G16" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Địa chỉ" sqref="H17:H1048576 H16" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã số thuế_x000a_Tối đa 14 ký tự" sqref="I17:I1048576 I16" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Hình thức thanh toán" sqref="J17:J1048576 J16" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Email người nhận hóa đơn._x000a_Nếu nhiều Email thì mỗi Email cách nhau bởi dấu &quot;;&quot;" sqref="K17:K1048576 K16" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số tài khoản ngân hàng" sqref="L17:L1048576 L16" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên ngân hàng" sqref="M17:M1048576 M16" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã loại tiền._x000a_Nếu để trống ngầm định là VND." sqref="N17:N1048576 N16" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tỷ giá_x000a_Tối đa 15 ký tự" sqref="O17:O1048576 O16" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên hàng hóa, dịch vụ._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống" sqref="P16 P17:P1048576" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn vị tính." sqref="R16:R17 R19:R1048576" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT quy đổi của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Y17:Y1048576 Y16" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT của hóa đơn_x000a_Tối đa 15 ký tự" sqref="X17:X1048576 X16" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập % Thuế GTGT:_x000a_- 0: 0%_x000a_- 5: 5%_x000a_- 10: 10%_x000a_- KCT: Không chịu thuế_x000a_- KKKNT: Không kê khai nộp thuế_x000a_- KHAC: Khác" sqref="W17:W1048576 W16" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền quy đổi_x000a_Tối đa 15 ký tự" sqref="V17:V1048576 V16" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền_x000a_Tối đa 15 ký tự" sqref="U17:U1048576 U16" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn giá_x000a_Tối đa 15 ký tự" sqref="T17:T1048576 T16" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số lượng_x000a_Tối đa 15 ký tự" sqref="S17:S1048576 S16" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã đơn vị lập hóa đơn._x000a_Lưu ý:_x000a_Trường dữ liệu bắt buộc._x000a_Không để trống._x000a_Nhập theo danh mục đã tạo tại Danh mục/Cơ cấu tổ chức" sqref="C16:C1048576" xr:uid="{00000000-0002-0000-0000-000016000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã trường dữ liệu/Tiện ích tương ứng trên Hóa đơn Bách Khoa" sqref="C15:D15 E15:P15 R15:Y15" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nhập Mã nhân viên bán hàng._x000a_Lưu ý:_x000a_Để trống nếu không thiết lập Tùy chọn/Quản lý nhân viên bán hàng trên hóa đơn._x000a_Nhập theo danh mục đã tạo tại Danh mục/Nhân viên" sqref="D16:D1048576" xr:uid="{00000000-0002-0000-0000-000018000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Tính chất." sqref="Q2 Q15" xr:uid="{30BB3401-499F-4DD0-9D31-C3AAA351A641}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tính chất._x000a_Nhập 1 hoặc để trống: Hàng hóa, dịch vụ._x000a_Nhập 2: Khuyến mại._x000a_Nhập 3: Chiết khấu thương mại._x000a_Nhập 4: Ghi chú/Diễn giải." sqref="Q16:Q1048576" xr:uid="{B530E0E4-F64E-4667-9780-8847C87A9E2E}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Ngày hóa đơn." sqref="D16 D17:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên người mua hàng" sqref="E17:E1048576 E16" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên khách hàng" sqref="F17:F1048576 F16" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Địa chỉ" sqref="G17:G1048576 G16" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã số thuế_x000a_Tối đa 14 ký tự" sqref="H17:H1048576 H16" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Hình thức thanh toán" sqref="I17:I1048576 I16" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Email người nhận hóa đơn._x000a_Nếu nhiều Email thì mỗi Email cách nhau bởi dấu &quot;;&quot;" sqref="J17:J1048576 J16" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số tài khoản ngân hàng" sqref="K17:K1048576 K16" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên ngân hàng" sqref="L17:L1048576 L16" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã loại tiền._x000a_Nếu để trống ngầm định là VND." sqref="M17:M1048576 M16" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tỷ giá_x000a_Tối đa 15 ký tự" sqref="N17:N1048576 N16" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên hàng hóa, dịch vụ._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống" sqref="O16 O17:O1048576" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn vị tính." sqref="P16:P17 P19:P1048576" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT quy đổi của hóa đơn_x000a_Tối đa 15 ký tự" sqref="W17:W1048576 W16" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT của hóa đơn_x000a_Tối đa 15 ký tự" sqref="V17:V1048576 V16" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập % Thuế GTGT:_x000a_- 0: 0%_x000a_- 5: 5%_x000a_- 10: 10%_x000a_- KCT: Không chịu thuế_x000a_- KKKNT: Không kê khai nộp thuế_x000a_- KHAC: Khác" sqref="U17:U1048576 U16" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền quy đổi_x000a_Tối đa 15 ký tự" sqref="T17:T1048576 T16" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền_x000a_Tối đa 15 ký tự" sqref="S17:S1048576 S16" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn giá_x000a_Tối đa 15 ký tự" sqref="R17:R1048576 R16" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số lượng_x000a_Tối đa 15 ký tự" sqref="Q17:Q1048576 Q16" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã trường dữ liệu/Tiện ích tương ứng trên Hóa đơn Bách Khoa" sqref="P15:W15 C15:O15" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nhập Mã nhân viên bán hàng._x000a_Lưu ý:_x000a_Để trống nếu không thiết lập Tùy chọn/Quản lý nhân viên bán hàng trên hóa đơn._x000a_Nhập theo danh mục đã tạo tại Danh mục/Nhân viên" sqref="C16:C1048576" xr:uid="{00000000-0002-0000-0000-000018000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1681,7 +1706,7 @@
         <v>178</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1930,10 +1955,10 @@
         <v>53</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">

--- a/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bill-back-end\API\wwwroot\docs\Template\ImportHoaDon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D895832F-A02C-4ADD-9781-8384B60C2F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8456E04-7A57-4798-A704-FE07F41150C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hóa đơn giá trị gia tăng" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="176">
   <si>
     <t>Số thứ tự hóa đơn (*)</t>
   </si>
@@ -159,132 +159,6 @@
   </si>
   <si>
     <t>Tên ngân hàng</t>
-  </si>
-  <si>
-    <t>NM 1</t>
-  </si>
-  <si>
-    <t>NM 2</t>
-  </si>
-  <si>
-    <t>NM 3</t>
-  </si>
-  <si>
-    <t>NM 4</t>
-  </si>
-  <si>
-    <t>NM 5</t>
-  </si>
-  <si>
-    <t>NM 6</t>
-  </si>
-  <si>
-    <t>NM 7</t>
-  </si>
-  <si>
-    <t>NM 8</t>
-  </si>
-  <si>
-    <t>NM 9</t>
-  </si>
-  <si>
-    <t>HHDV 2</t>
-  </si>
-  <si>
-    <t>HHDV 3</t>
-  </si>
-  <si>
-    <t>HHDV 4</t>
-  </si>
-  <si>
-    <t>HHDV 5</t>
-  </si>
-  <si>
-    <t>HHDV 6</t>
-  </si>
-  <si>
-    <t>HHDV 7</t>
-  </si>
-  <si>
-    <t>HHDV 8</t>
-  </si>
-  <si>
-    <t>HHDV 9</t>
-  </si>
-  <si>
-    <t>HHDV 10</t>
-  </si>
-  <si>
-    <t>HHDV 11</t>
-  </si>
-  <si>
-    <t>HHDV 12</t>
-  </si>
-  <si>
-    <t>HHDV 13</t>
-  </si>
-  <si>
-    <t>HHDV 14</t>
-  </si>
-  <si>
-    <t>HHDV 15</t>
-  </si>
-  <si>
-    <t>HHDV 16</t>
-  </si>
-  <si>
-    <t>HHDV 17</t>
-  </si>
-  <si>
-    <t>HHDV 18</t>
-  </si>
-  <si>
-    <t>HHDV 19</t>
-  </si>
-  <si>
-    <t>HHDV 20</t>
-  </si>
-  <si>
-    <t>HHDV 21</t>
-  </si>
-  <si>
-    <t>HHDV 22</t>
-  </si>
-  <si>
-    <t>HHDV 23</t>
-  </si>
-  <si>
-    <t>HHDV 24</t>
-  </si>
-  <si>
-    <t>HHDV 25</t>
-  </si>
-  <si>
-    <t>HHDV 26</t>
-  </si>
-  <si>
-    <t>HHDV 27</t>
-  </si>
-  <si>
-    <t>HHDV 28</t>
-  </si>
-  <si>
-    <t>HHDV 29</t>
-  </si>
-  <si>
-    <t>HHDV 30</t>
-  </si>
-  <si>
-    <t>HHDV 31</t>
-  </si>
-  <si>
-    <t>HHDV 32</t>
-  </si>
-  <si>
-    <t>HHDV 33</t>
-  </si>
-  <si>
-    <t>HHDV 34</t>
   </si>
   <si>
     <t>Thông tin tiền tệ</t>
@@ -449,9 +323,6 @@
     <t xml:space="preserve">- Người dùng muốn nhập thêm thông tin khác: </t>
   </si>
   <si>
-    <t>NM 10</t>
-  </si>
-  <si>
     <t>Mã khách hàng</t>
   </si>
   <si>
@@ -478,9 +349,6 @@
 trên Hóa đơn Bách Khoa</t>
   </si>
   <si>
-    <t>HHDV 1</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -533,9 +401,6 @@
   </si>
   <si>
     <t>Hướng dẫn nhập</t>
-  </si>
-  <si>
-    <t>Tên trường dữ liệu</t>
   </si>
   <si>
     <t>Mã Trường dữ liệu/Tiện ích
@@ -615,28 +480,10 @@
     <t>- Dữ liệu thuộc nhóm: Thông tin nhân viên bán hàng, Thông tin ngày hóa đơn, Thông tin người mua hàng thì nhập tại dòng đầu tiên của hóa đơn tương ứng</t>
   </si>
   <si>
-    <t>HHDV 35</t>
-  </si>
-  <si>
-    <t>HHDV 36</t>
-  </si>
-  <si>
     <t>Mã nhân viên</t>
   </si>
   <si>
     <t>Tên nhân viên</t>
-  </si>
-  <si>
-    <t>Thông tin đơn vị lập hóa đơn</t>
-  </si>
-  <si>
-    <t>DONVI</t>
-  </si>
-  <si>
-    <t>Đơn vị</t>
-  </si>
-  <si>
-    <t>Nhập Đơn vị lập hóa đơn</t>
   </si>
   <si>
     <t>Tính chất</t>
@@ -694,6 +541,93 @@
   </si>
   <si>
     <t>HHDV18</t>
+  </si>
+  <si>
+    <t>NM2</t>
+  </si>
+  <si>
+    <t>NM8</t>
+  </si>
+  <si>
+    <t>HHDV1</t>
+  </si>
+  <si>
+    <t>HHDV2</t>
+  </si>
+  <si>
+    <t>HHDV4</t>
+  </si>
+  <si>
+    <t>HHDV5</t>
+  </si>
+  <si>
+    <t>HHDV8</t>
+  </si>
+  <si>
+    <t>HHDV10</t>
+  </si>
+  <si>
+    <t>HHDV13</t>
+  </si>
+  <si>
+    <t>HHDV14</t>
+  </si>
+  <si>
+    <t>HHDV15</t>
+  </si>
+  <si>
+    <t>HHDV19</t>
+  </si>
+  <si>
+    <t>HHDV20</t>
+  </si>
+  <si>
+    <t>HHDV21</t>
+  </si>
+  <si>
+    <t>HHDV22</t>
+  </si>
+  <si>
+    <t>HHDV23</t>
+  </si>
+  <si>
+    <t>HHDV24</t>
+  </si>
+  <si>
+    <t>HHDV25</t>
+  </si>
+  <si>
+    <t>HHDV26</t>
+  </si>
+  <si>
+    <t>HHDV27</t>
+  </si>
+  <si>
+    <t>HHDV28</t>
+  </si>
+  <si>
+    <t>HHDV29</t>
+  </si>
+  <si>
+    <t>HHDV30</t>
+  </si>
+  <si>
+    <t>HHDV31</t>
+  </si>
+  <si>
+    <t>HHDV32</t>
+  </si>
+  <si>
+    <t>HHDV33</t>
+  </si>
+  <si>
+    <t>HHDV34</t>
+  </si>
+  <si>
+    <t>HHDV35</t>
+  </si>
+  <si>
+    <t>HHDV36</t>
   </si>
 </sst>
 </file>
@@ -811,7 +745,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,12 +782,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -884,7 +812,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -923,7 +851,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1244,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1192,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -1275,7 +1202,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1285,359 +1212,215 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>136</v>
+      <c r="A12" s="20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>137</v>
+      <c r="A13" s="20" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:23" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="P15" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="20" t="s">
+      <c r="Q15" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="S15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="T15" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="U15" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="V15" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="W15" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="U15" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="W15" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="26" t="s">
+      <c r="C16" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="P16" s="27" t="s">
+      <c r="O16" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="Q16" s="28" t="s">
+      <c r="Q16" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="R16" s="29" t="s">
+      <c r="R16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="S16" s="29" t="s">
+      <c r="S16" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="29" t="s">
+      <c r="T16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="U16" s="30" t="s">
+      <c r="U16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V16" s="30" t="s">
+      <c r="V16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="W16" s="30" t="s">
+      <c r="W16" s="29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="24">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Không nhập thông tin tại cột này" sqref="A16:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Ngày hóa đơn." sqref="D16:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên người mua hàng" sqref="E16:E1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên khách hàng" sqref="F16:F1048576" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Địa chỉ" sqref="G16:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã số thuế_x000a_Tối đa 14 ký tự" sqref="H16:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Hình thức thanh toán" sqref="I16:I1048576" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Email người nhận hóa đơn._x000a_Nếu nhiều Email thì mỗi Email cách nhau bởi dấu &quot;;&quot;" sqref="J16:J1048576" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số tài khoản ngân hàng" sqref="K16:K1048576" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên ngân hàng" sqref="L16:L1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã loại tiền._x000a_Nếu để trống ngầm định là VND." sqref="M16:M1048576" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tỷ giá_x000a_Tối đa 15 ký tự" sqref="N16:N1048576" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên hàng hóa, dịch vụ._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống" sqref="O16:O1048576" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn vị tính." sqref="P16:P1048576" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT quy đổi của hóa đơn_x000a_Tối đa 15 ký tự" sqref="W16:W1048576" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT của hóa đơn_x000a_Tối đa 15 ký tự" sqref="V16:V1048576" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập % Thuế GTGT:_x000a_- 0: 0%_x000a_- 5: 5%_x000a_- 10: 10%_x000a_- KCT: Không chịu thuế_x000a_- KKKNT: Không kê khai nộp thuế_x000a_- KHAC: Khác" sqref="U16:U1048576" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền quy đổi_x000a_Tối đa 15 ký tự" sqref="T16:T1048576" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền_x000a_Tối đa 15 ký tự" sqref="S16:S1048576" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn giá_x000a_Tối đa 15 ký tự" sqref="R16:R1048576" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số lượng_x000a_Tối đa 15 ký tự" sqref="Q16:Q1048576" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã trường dữ liệu/Tiện ích tương ứng trên Hóa đơn Bách Khoa" sqref="P15:W15 C15:O15" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập số thứ tự của hóa đơn._x000a_Lưu ý: Mỗi số thứ tự sẽ tương ứng với 1 hóa đơn_x000a_Trường dữ liệu bắt buộc._x000a_Không để trống." sqref="B16:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Ngày hóa đơn." sqref="D16 D17:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên người mua hàng" sqref="E17:E1048576 E16" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên khách hàng" sqref="F17:F1048576 F16" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Địa chỉ" sqref="G17:G1048576 G16" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã số thuế_x000a_Tối đa 14 ký tự" sqref="H17:H1048576 H16" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Hình thức thanh toán" sqref="I17:I1048576 I16" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Email người nhận hóa đơn._x000a_Nếu nhiều Email thì mỗi Email cách nhau bởi dấu &quot;;&quot;" sqref="J17:J1048576 J16" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số tài khoản ngân hàng" sqref="K17:K1048576 K16" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên ngân hàng" sqref="L17:L1048576 L16" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã loại tiền._x000a_Nếu để trống ngầm định là VND." sqref="M17:M1048576 M16" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tỷ giá_x000a_Tối đa 15 ký tự" sqref="N17:N1048576 N16" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên hàng hóa, dịch vụ._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống" sqref="O16 O17:O1048576" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn vị tính." sqref="P16:P17 P19:P1048576" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT quy đổi của hóa đơn_x000a_Tối đa 15 ký tự" sqref="W17:W1048576 W16" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT của hóa đơn_x000a_Tối đa 15 ký tự" sqref="V17:V1048576 V16" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập % Thuế GTGT:_x000a_- 0: 0%_x000a_- 5: 5%_x000a_- 10: 10%_x000a_- KCT: Không chịu thuế_x000a_- KKKNT: Không kê khai nộp thuế_x000a_- KHAC: Khác" sqref="U17:U1048576 U16" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền quy đổi_x000a_Tối đa 15 ký tự" sqref="T17:T1048576 T16" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền_x000a_Tối đa 15 ký tự" sqref="S17:S1048576 S16" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn giá_x000a_Tối đa 15 ký tự" sqref="R17:R1048576 R16" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số lượng_x000a_Tối đa 15 ký tự" sqref="Q17:Q1048576 Q16" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã trường dữ liệu/Tiện ích tương ứng trên Hóa đơn Bách Khoa" sqref="P15:W15 C15:O15" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nhập Mã nhân viên bán hàng._x000a_Lưu ý:_x000a_Để trống nếu không thiết lập Tùy chọn/Quản lý nhân viên bán hàng trên hóa đơn._x000a_Nhập theo danh mục đã tạo tại Danh mục/Nhân viên" sqref="C16:C1048576" xr:uid="{00000000-0002-0000-0000-000018000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tính chất._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống._x000a_Nhập 1: Hàng hóa, dịch vụ._x000a_Nhập 2: Khuyến mại._x000a_Nhập 3: Chiết khấu._x000a_Nhập 4: Ghi chú/diễn giải._x000a_" sqref="A15:A1048576" xr:uid="{C2DF2702-8D62-4EC0-93DA-3D92EB82C3BD}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1649,10 +1432,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,77 +1447,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>163</v>
+      <c r="A1" s="22" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>162</v>
+      <c r="A2" s="21" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>168</v>
+      <c r="A3" s="21" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>101</v>
+      <c r="A9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1742,13 +1525,13 @@
         <v>37</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1756,13 +1539,13 @@
         <v>37</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1770,55 +1553,55 @@
         <v>37</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>103</v>
+        <v>5</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1826,27 +1609,27 @@
         <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>111</v>
+        <v>40</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1854,55 +1637,55 @@
         <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>105</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>86</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1910,55 +1693,55 @@
         <v>38</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>181</v>
+        <v>23</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1966,83 +1749,83 @@
         <v>38</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>119</v>
+        <v>10</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2050,41 +1833,41 @@
         <v>38</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>121</v>
+        <v>27</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2092,41 +1875,41 @@
         <v>38</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2134,27 +1917,27 @@
         <v>38</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>123</v>
+        <v>30</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2162,13 +1945,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2176,13 +1959,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2190,13 +1973,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2204,13 +1987,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2218,13 +2001,13 @@
         <v>38</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2232,13 +2015,13 @@
         <v>38</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2246,13 +2029,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>107</v>
+        <v>128</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2260,13 +2043,13 @@
         <v>38</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>119</v>
+        <v>45</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2274,13 +2057,13 @@
         <v>38</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2288,13 +2071,13 @@
         <v>38</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2302,13 +2085,13 @@
         <v>38</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2316,13 +2099,13 @@
         <v>38</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2330,13 +2113,13 @@
         <v>38</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2344,13 +2127,13 @@
         <v>38</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2358,13 +2141,13 @@
         <v>38</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2372,13 +2155,13 @@
         <v>38</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2386,34 +2169,20 @@
         <v>38</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bill-back-end\API\wwwroot\docs\Template\ImportHoaDon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8456E04-7A57-4798-A704-FE07F41150C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637DC61B-2ADB-4DE3-8FA7-1D170FB6CA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hóa đơn giá trị gia tăng" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="177">
   <si>
     <t>Số thứ tự hóa đơn (*)</t>
   </si>
@@ -628,6 +628,9 @@
   </si>
   <si>
     <t>HHDV36</t>
+  </si>
+  <si>
+    <t>Tỷ lệ chiết khấu (%)</t>
   </si>
 </sst>
 </file>
@@ -812,7 +815,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -889,6 +892,8 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,89 +1176,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="26.5703125" style="1"/>
-    <col min="8" max="8" width="26.5703125" style="2"/>
-    <col min="9" max="24" width="26.5703125" style="1"/>
-    <col min="26" max="16384" width="26.5703125" style="1"/>
+    <col min="1" max="4" width="26.5703125" style="1"/>
+    <col min="5" max="7" width="26.5703125" style="31"/>
+    <col min="8" max="8" width="26.5703125" style="30"/>
+    <col min="9" max="9" width="26.5703125" style="1"/>
+    <col min="10" max="12" width="26.5703125" style="31"/>
+    <col min="13" max="20" width="26.5703125" style="1"/>
+    <col min="24" max="27" width="26.5703125" style="1"/>
+    <col min="29" max="16384" width="26.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:23" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>96</v>
       </c>
@@ -1315,16 +1422,25 @@
         <v>143</v>
       </c>
       <c r="U15" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="V15" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="W15" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="V15" s="19" t="s">
+      <c r="Y15" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="W15" s="19" t="s">
+      <c r="Z15" s="19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>129</v>
       </c>
@@ -1385,24 +1501,32 @@
       <c r="T16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="U16" s="29" t="s">
+      <c r="U16" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="V16" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V16" s="29" t="s">
+      <c r="Y16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="W16" s="29" t="s">
+      <c r="Z16" s="29" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="24">
+  <dataValidations xWindow="862" yWindow="600" count="27">
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Ngày hóa đơn." sqref="D16:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên người mua hàng" sqref="E16:E1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên khách hàng" sqref="F16:F1048576" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Địa chỉ" sqref="G16:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã số thuế_x000a_Tối đa 14 ký tự" sqref="H16:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Hình thức thanh toán" sqref="I16:I1048576" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Email người nhận hóa đơn._x000a_Nếu nhiều Email thì mỗi Email cách nhau bởi dấu &quot;;&quot;" sqref="J16:J1048576" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số tài khoản ngân hàng" sqref="K16:K1048576" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên ngân hàng" sqref="L16:L1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
@@ -1410,17 +1534,21 @@
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tỷ giá_x000a_Tối đa 15 ký tự" sqref="N16:N1048576" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên hàng hóa, dịch vụ._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống" sqref="O16:O1048576" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn vị tính." sqref="P16:P1048576" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT quy đổi của hóa đơn_x000a_Tối đa 15 ký tự" sqref="W16:W1048576" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT của hóa đơn_x000a_Tối đa 15 ký tự" sqref="V16:V1048576" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập % Thuế GTGT:_x000a_- 0: 0%_x000a_- 5: 5%_x000a_- 10: 10%_x000a_- KCT: Không chịu thuế_x000a_- KKKNT: Không kê khai nộp thuế_x000a_- KHAC: Khác" sqref="U16:U1048576" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT quy đổi của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Z16:Z1048576" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Y16:Y1048576" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập % Thuế GTGT:_x000a_- 0: 0%_x000a_- 5: 5%_x000a_- 10: 10%_x000a_- KCT: Không chịu thuế_x000a_- KKKNT: Không kê khai nộp thuế_x000a_- KHAC: Khác" sqref="X16:X1048576" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền quy đổi_x000a_Tối đa 15 ký tự" sqref="T16:T1048576" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền_x000a_Tối đa 15 ký tự" sqref="S16:S1048576" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn giá_x000a_Tối đa 15 ký tự" sqref="R16:R1048576" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số lượng_x000a_Tối đa 15 ký tự" sqref="Q16:Q1048576" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã trường dữ liệu/Tiện ích tương ứng trên Hóa đơn Bách Khoa" sqref="P15:W15 C15:O15" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã trường dữ liệu/Tiện ích tương ứng trên Hóa đơn Bách Khoa" sqref="C15:Z15" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập số thứ tự của hóa đơn._x000a_Lưu ý: Mỗi số thứ tự sẽ tương ứng với 1 hóa đơn_x000a_Trường dữ liệu bắt buộc._x000a_Không để trống." sqref="B16:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nhập Mã nhân viên bán hàng._x000a_Lưu ý:_x000a_Để trống nếu không thiết lập Tùy chọn/Quản lý nhân viên bán hàng trên hóa đơn._x000a_Nhập theo danh mục đã tạo tại Danh mục/Nhân viên" sqref="C16:C1048576" xr:uid="{00000000-0002-0000-0000-000018000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tính chất._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống._x000a_Nhập 1: Hàng hóa, dịch vụ._x000a_Nhập 2: Khuyến mại._x000a_Nhập 3: Chiết khấu._x000a_Nhập 4: Ghi chú/diễn giải._x000a_" sqref="A15:A1048576" xr:uid="{C2DF2702-8D62-4EC0-93DA-3D92EB82C3BD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Hình thức thanh toán_x000a_Trường dữ liệu bắt buộc._x000a_Không để trống._x000a_Nhập 1: Tiền mặt_x000a_Nhập 2: Chuyển khoản_x000a_Nhập 3: Tiền mặt/Chuyển khoản_x000a_Nhập 4: Đối trừ công nợ_x000a_Nhập 5: Không thu tiền_x000a_Nhập 6: Khác" sqref="I16:I1048576" xr:uid="{8B958E58-BCA7-4AFD-9EE5-8B5BCFE65C5D}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền chiết khấu quy đổi._x000a_Tối đa 15 ký tự." sqref="W16:W1048576" xr:uid="{59E62C82-5C86-446E-B8FF-FAD97EC87620}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền chiết khấu._x000a_Tối đa 15 ký tự" sqref="V16:V1048576" xr:uid="{EA2D2957-9956-480A-9F15-11AB4EEC5272}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tỷ lệ chiết khấu (%)." sqref="U16:U1048576" xr:uid="{0883E161-15FD-425C-BF91-00A4A496C2F6}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1434,7 +1562,7 @@
   </sheetPr>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>

--- a/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bill-back-end\API\wwwroot\docs\Template\ImportHoaDon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637DC61B-2ADB-4DE3-8FA7-1D170FB6CA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B628B77-9856-4E25-9A47-B21ADCC8574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hóa đơn giá trị gia tăng" sheetId="1" r:id="rId1"/>
     <sheet name="Nguyên tắc ghép dữ liệu" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -276,15 +277,6 @@
   </si>
   <si>
     <t>KHÔNG SỬ DỤNG KHI NHẬP KHẨU DỮ LIỆU TỪ EXCEL</t>
-  </si>
-  <si>
-    <t>Nhập % Thuế GTGT:
-- 0: 0%
-- 5: 5%
-- 10: 10%
-- KCT: Không chịu thuế
-- KKKNT: Không kê khai nộp thuế
-- KHAC: Khác</t>
   </si>
   <si>
     <t>Nhập Tỷ lệ chiết khấu</t>
@@ -631,6 +623,27 @@
   </si>
   <si>
     <t>Tỷ lệ chiết khấu (%)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nhập % Thuế GTGT:
+- 0: 0%
+- 5: 5%
+- 10: 10%
+- KCT: Không chịu thuế
+- KKKNT: Không kê khai nộp thuế
+- AB.CD%: Khác. Trong đó: A, B, C, D là các số nguyên từ 0 đến 9.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ví dụ: 3,5% có thể nhập là 03.50% hoặc 03.5% hoặc 3.5% hoặc 3.50%</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -897,8 +910,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1175,11 +1188,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1221,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1232,7 +1245,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1292,7 +1305,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1304,7 +1317,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1316,7 +1329,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1328,7 +1341,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1340,7 +1353,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1362,87 +1375,87 @@
     </row>
     <row r="15" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>88</v>
-      </c>
       <c r="F15" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="H15" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="I15" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="K15" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="L15" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="M15" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="M15" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="O15" s="19" t="s">
+      <c r="P15" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="P15" s="19" t="s">
+      <c r="Q15" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="Q15" s="19" t="s">
+      <c r="R15" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="R15" s="19" t="s">
+      <c r="S15" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="S15" s="19" t="s">
+      <c r="T15" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="T15" s="19" t="s">
+      <c r="U15" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="V15" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="W15" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="U15" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="V15" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="W15" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="X15" s="19" t="s">
+      <c r="Y15" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="Y15" s="19" t="s">
+      <c r="Z15" s="19" t="s">
         <v>145</v>
-      </c>
-      <c r="Z15" s="19" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>0</v>
@@ -1484,7 +1497,7 @@
         <v>14</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P16" s="26" t="s">
         <v>7</v>
@@ -1502,7 +1515,7 @@
         <v>15</v>
       </c>
       <c r="U16" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V16" s="28" t="s">
         <v>27</v>
@@ -1521,34 +1534,34 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="862" yWindow="600" count="27">
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Ngày hóa đơn." sqref="D16:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên người mua hàng" sqref="E16:E1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên khách hàng" sqref="F16:F1048576" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Địa chỉ" sqref="G16:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã số thuế_x000a_Tối đa 14 ký tự" sqref="H16:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Email người nhận hóa đơn._x000a_Nếu nhiều Email thì mỗi Email cách nhau bởi dấu &quot;;&quot;" sqref="J16:J1048576" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số tài khoản ngân hàng" sqref="K16:K1048576" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên ngân hàng" sqref="L16:L1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã loại tiền._x000a_Nếu để trống ngầm định là VND." sqref="M16:M1048576" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tỷ giá_x000a_Tối đa 15 ký tự" sqref="N16:N1048576" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên hàng hóa, dịch vụ._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống" sqref="O16:O1048576" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn vị tính." sqref="P16:P1048576" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT quy đổi của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Z16:Z1048576" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Y16:Y1048576" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập % Thuế GTGT:_x000a_- 0: 0%_x000a_- 5: 5%_x000a_- 10: 10%_x000a_- KCT: Không chịu thuế_x000a_- KKKNT: Không kê khai nộp thuế_x000a_- KHAC: Khác" sqref="X16:X1048576" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền quy đổi_x000a_Tối đa 15 ký tự" sqref="T16:T1048576" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền_x000a_Tối đa 15 ký tự" sqref="S16:S1048576" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn giá_x000a_Tối đa 15 ký tự" sqref="R16:R1048576" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số lượng_x000a_Tối đa 15 ký tự" sqref="Q16:Q1048576" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã trường dữ liệu/Tiện ích tương ứng trên Hóa đơn Bách Khoa" sqref="C15:Z15" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập số thứ tự của hóa đơn._x000a_Lưu ý: Mỗi số thứ tự sẽ tương ứng với 1 hóa đơn_x000a_Trường dữ liệu bắt buộc._x000a_Không để trống." sqref="B16:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nhập Mã nhân viên bán hàng._x000a_Lưu ý:_x000a_Để trống nếu không thiết lập Tùy chọn/Quản lý nhân viên bán hàng trên hóa đơn._x000a_Nhập theo danh mục đã tạo tại Danh mục/Nhân viên" sqref="C16:C1048576" xr:uid="{00000000-0002-0000-0000-000018000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tính chất._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống._x000a_Nhập 1: Hàng hóa, dịch vụ._x000a_Nhập 2: Khuyến mại._x000a_Nhập 3: Chiết khấu._x000a_Nhập 4: Ghi chú/diễn giải._x000a_" sqref="A15:A1048576" xr:uid="{C2DF2702-8D62-4EC0-93DA-3D92EB82C3BD}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Hình thức thanh toán_x000a_Trường dữ liệu bắt buộc._x000a_Không để trống._x000a_Nhập 1: Tiền mặt_x000a_Nhập 2: Chuyển khoản_x000a_Nhập 3: Tiền mặt/Chuyển khoản_x000a_Nhập 4: Đối trừ công nợ_x000a_Nhập 5: Không thu tiền_x000a_Nhập 6: Khác" sqref="I16:I1048576" xr:uid="{8B958E58-BCA7-4AFD-9EE5-8B5BCFE65C5D}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền chiết khấu quy đổi._x000a_Tối đa 15 ký tự." sqref="W16:W1048576" xr:uid="{59E62C82-5C86-446E-B8FF-FAD97EC87620}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền chiết khấu._x000a_Tối đa 15 ký tự" sqref="V16:V1048576" xr:uid="{EA2D2957-9956-480A-9F15-11AB4EEC5272}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tỷ lệ chiết khấu (%)." sqref="U16:U1048576" xr:uid="{0883E161-15FD-425C-BF91-00A4A496C2F6}"/>
+  <dataValidations xWindow="860" yWindow="536" count="27">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Ngày hóa đơn." sqref="D16:D1048576" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên người mua hàng" sqref="E16:E1048576" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên khách hàng" sqref="F16:F1048576" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Địa chỉ" sqref="G16:G1048576" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã số thuế_x000a_Tối đa 14 ký tự" sqref="H16:H1048576" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Email người nhận hóa đơn._x000a_Nếu nhiều Email thì mỗi Email cách nhau bởi dấu &quot;;&quot;" sqref="J16:J1048576" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số tài khoản ngân hàng" sqref="K16:K1048576" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên ngân hàng" sqref="L16:L1048576" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
+    <dataValidation showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã loại tiền._x000a_Nếu để trống ngầm định là VND." sqref="M16:M1048576" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tỷ giá_x000a_Tối đa 15 ký tự" sqref="N16:N1048576" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên hàng hóa, dịch vụ._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống" sqref="O16:O1048576" xr:uid="{00000000-0002-0000-0100-00000A000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn vị tính." sqref="P16:P1048576" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT quy đổi của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Z16:Z1048576" xr:uid="{00000000-0002-0000-0100-00000C000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Y16:Y1048576" xr:uid="{00000000-0002-0000-0100-00000D000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập % Thuế GTGT:_x000a_- 0: 0%_x000a_- 5: 5%_x000a_- 8: 8%_x000a_- 10: 10%_x000a_- KCT: Không chịu thuế_x000a_- KKKNT: Không kê khai nộp thuế_x000a_- AB.CD%: Khác (Trong đó: A, B, C, D là các số nguyên từ 0 đến 9)" sqref="X16:X1048576" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền quy đổi_x000a_Tối đa 15 ký tự" sqref="T16:T1048576" xr:uid="{00000000-0002-0000-0100-00000F000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền_x000a_Tối đa 15 ký tự" sqref="S16" xr:uid="{00000000-0002-0000-0100-000010000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn giá_x000a_Tối đa 15 ký tự" sqref="R16:R1048576" xr:uid="{00000000-0002-0000-0100-000011000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số lượng_x000a_Tối đa 15 ký tự" sqref="Q16:Q1048576" xr:uid="{00000000-0002-0000-0100-000012000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã trường dữ liệu/Tiện ích tương ứng trên Hóa đơn Bách Khoa" sqref="C15:Z15" xr:uid="{00000000-0002-0000-0100-000013000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập số thứ tự của hóa đơn._x000a_Lưu ý: Mỗi số thứ tự sẽ tương ứng với 1 hóa đơn_x000a_Trường dữ liệu bắt buộc._x000a_Không để trống." sqref="B16:B1048576" xr:uid="{00000000-0002-0000-0100-000014000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nhập Mã nhân viên bán hàng._x000a_Lưu ý:_x000a_Để trống nếu không thiết lập Tùy chọn/Quản lý nhân viên bán hàng trên hóa đơn._x000a_Nhập theo danh mục đã tạo tại Danh mục/Nhân viên" sqref="C16:C1048576" xr:uid="{00000000-0002-0000-0100-000015000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tính chất._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống._x000a_Nhập 1: Hàng hóa, dịch vụ._x000a_Nhập 2: Khuyến mại._x000a_Nhập 3: Chiết khấu._x000a_Nhập 4: Ghi chú/diễn giải._x000a_" sqref="A15:A1048576" xr:uid="{00000000-0002-0000-0100-000016000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Hình thức thanh toán_x000a_Trường dữ liệu bắt buộc._x000a_Không để trống._x000a_Nhập 1: Tiền mặt_x000a_Nhập 2: Chuyển khoản_x000a_Nhập 3: Tiền mặt/Chuyển khoản_x000a_Nhập 4: Đối trừ công nợ_x000a_Nhập 5: Không thu tiền_x000a_Nhập 6: Khác" sqref="I16:I1048576" xr:uid="{00000000-0002-0000-0100-000017000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền chiết khấu quy đổi._x000a_Tối đa 15 ký tự." sqref="W16:W1048576" xr:uid="{00000000-0002-0000-0100-000018000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền chiết khấu._x000a_Tối đa 15 ký tự" sqref="V16:V1048576" xr:uid="{00000000-0002-0000-0100-000019000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tỷ lệ chiết khấu (%)." sqref="U16:U1048576" xr:uid="{00000000-0002-0000-0100-00001A000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1556,14 +1569,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView showGridLines="0" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,17 +1589,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,13 +1610,13 @@
         <v>36</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,7 +1624,7 @@
         <v>55</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1</v>
@@ -1622,10 +1635,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>59</v>
@@ -1639,7 +1652,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>4</v>
@@ -1653,13 +1666,13 @@
         <v>37</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,7 +1680,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>12</v>
@@ -1681,7 +1694,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>2</v>
@@ -1695,13 +1708,13 @@
         <v>37</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,7 +1722,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>6</v>
@@ -1723,13 +1736,13 @@
         <v>37</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1737,7 +1750,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>39</v>
@@ -1751,7 +1764,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>40</v>
@@ -1765,7 +1778,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>41</v>
@@ -1779,7 +1792,7 @@
         <v>42</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>13</v>
@@ -1793,7 +1806,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>14</v>
@@ -1807,10 +1820,10 @@
         <v>38</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>77</v>
@@ -1821,13 +1834,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1835,13 +1848,13 @@
         <v>38</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1849,13 +1862,13 @@
         <v>38</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1863,7 +1876,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>23</v>
@@ -1877,7 +1890,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>7</v>
@@ -1891,7 +1904,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>8</v>
@@ -1905,7 +1918,7 @@
         <v>38</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>24</v>
@@ -1919,7 +1932,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>9</v>
@@ -1933,7 +1946,7 @@
         <v>38</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>25</v>
@@ -1947,7 +1960,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>10</v>
@@ -1961,7 +1974,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>15</v>
@@ -1975,13 +1988,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1989,7 +2002,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>27</v>
@@ -2003,7 +2016,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>28</v>
@@ -2012,18 +2025,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2031,13 +2044,13 @@
         <v>38</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2045,13 +2058,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2059,13 +2072,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2073,13 +2086,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2087,13 +2100,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2101,13 +2114,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2115,13 +2128,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2129,13 +2142,13 @@
         <v>38</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2143,10 +2156,10 @@
         <v>38</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>65</v>
@@ -2157,10 +2170,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>77</v>
@@ -2171,13 +2184,13 @@
         <v>38</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2185,13 +2198,13 @@
         <v>38</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2199,13 +2212,13 @@
         <v>38</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2213,13 +2226,13 @@
         <v>38</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2227,13 +2240,13 @@
         <v>38</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2241,13 +2254,13 @@
         <v>38</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2255,13 +2268,13 @@
         <v>38</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2269,13 +2282,13 @@
         <v>38</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2283,13 +2296,13 @@
         <v>38</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2297,13 +2310,13 @@
         <v>38</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2314,6 +2327,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bill-back-end\API\wwwroot\docs\Template\ImportHoaDon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B628B77-9856-4E25-9A47-B21ADCC8574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F4AFF1-502F-466B-A86F-1185A6915E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hóa đơn giá trị gia tăng" sheetId="1" r:id="rId1"/>
@@ -629,6 +629,7 @@
       <t xml:space="preserve">Nhập % Thuế GTGT:
 - 0: 0%
 - 5: 5%
+- 8: 8%
 - 10: 10%
 - KCT: Không chịu thuế
 - KKKNT: Không kê khai nộp thuế
@@ -1191,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1550,7 @@
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn vị tính." sqref="P16:P1048576" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT quy đổi của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Z16:Z1048576" xr:uid="{00000000-0002-0000-0100-00000C000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Y16:Y1048576" xr:uid="{00000000-0002-0000-0100-00000D000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập % Thuế GTGT:_x000a_- 0: 0%_x000a_- 5: 5%_x000a_- 8: 8%_x000a_- 10: 10%_x000a_- KCT: Không chịu thuế_x000a_- KKKNT: Không kê khai nộp thuế_x000a_- AB.CD%: Khác (Trong đó: A, B, C, D là các số nguyên từ 0 đến 9)" sqref="X16:X1048576" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập % Thuế GTGT:_x000a_- 0: 0%_x000a_- 5: 5%_x000a_- 8: 8%_x000a_- 10: 10%_x000a_- KCT: Không chịu thuế_x000a_- KKKNT: Không kê khai nộp thuế_x000a_- AB.CD%: Khác. Trong đó: A, B, C, D là các số nguyên từ 0 đến 9._x000a_Ví dụ: 3,5% có thể nhập là 03.50% hoặc 03.5% hoặc 3.5% hoặc 3.50%" sqref="X16:X1048576" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền quy đổi_x000a_Tối đa 15 ký tự" sqref="T16:T1048576" xr:uid="{00000000-0002-0000-0100-00000F000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền_x000a_Tối đa 15 ký tự" sqref="S16" xr:uid="{00000000-0002-0000-0100-000010000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn giá_x000a_Tối đa 15 ký tự" sqref="R16:R1048576" xr:uid="{00000000-0002-0000-0100-000011000000}"/>
@@ -1575,8 +1576,8 @@
   </sheetPr>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2025,7 +2026,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>38</v>
       </c>

--- a/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bill-back-end\API\wwwroot\docs\Template\ImportHoaDon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F4AFF1-502F-466B-A86F-1185A6915E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4288755-BB6E-49E6-AB8D-CD4FF94C3652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,25 +16,17 @@
     <sheet name="Hóa đơn giá trị gia tăng" sheetId="1" r:id="rId1"/>
     <sheet name="Nguyên tắc ghép dữ liệu" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="178">
   <si>
     <t>Số thứ tự hóa đơn (*)</t>
   </si>
@@ -309,9 +301,6 @@
     <t>NVBANHANG</t>
   </si>
   <si>
-    <t>NM1</t>
-  </si>
-  <si>
     <t xml:space="preserve">- Người dùng muốn nhập thêm thông tin khác: </t>
   </si>
   <si>
@@ -322,12 +311,6 @@
   </si>
   <si>
     <t>- Khai báo dữ liệu hóa đơn cần lập trên Hóa đơn Bách Khoa tại các cột tương ứng trên file này</t>
-  </si>
-  <si>
-    <t>Ví dụ 1: Thêm thông tin Mã khách hàng thì tại dòng Mã trường dữ liệu/Tiện ích trên Hóa đơn Bách Khoa người dùng khai báo là NM 2</t>
-  </si>
-  <si>
-    <t>Ví dụ 2: Đánh dấu dòng khai báo là dòng chiết khấu thì thêm cột thông tin Là dòng chiết khấu và tại dòng Mã trường dữ liệu/Tiện ích trên Hóa đơn Bách Khoa người dùng khai báo là DONGCHIETKHAU</t>
   </si>
   <si>
     <t xml:space="preserve">+ Hệ thống căn cứ vào dòng mã này để ghép dữ liệu hóa đơn đã khai báo đúng Trường dữ liệu/Tiện ích tương ứng trên Hóa đơn Bách Khoa </t>
@@ -481,148 +464,42 @@
     <t>Tính chất</t>
   </si>
   <si>
-    <t>Nhâp 1 hoặc để trống nếu là Hàng hóa, dịch vụ
-Nhập 2 nếu là Khuyến mại
-Nhập 3 nếu là Chiết khấu thương mại
-Nhập 4 nếu là Ghi chú/Diễn giải</t>
-  </si>
-  <si>
-    <t>NM3</t>
-  </si>
-  <si>
-    <t>NM4</t>
-  </si>
-  <si>
-    <t>NM5</t>
-  </si>
-  <si>
-    <t>NM6</t>
-  </si>
-  <si>
-    <t>NM7</t>
-  </si>
-  <si>
-    <t>NM9</t>
-  </si>
-  <si>
-    <t>NM10</t>
-  </si>
-  <si>
-    <t>HHDV3</t>
-  </si>
-  <si>
-    <t>HHDV6</t>
-  </si>
-  <si>
-    <t>HHDV7</t>
-  </si>
-  <si>
-    <t>HHDV9</t>
-  </si>
-  <si>
-    <t>HHDV11</t>
-  </si>
-  <si>
-    <t>HHDV12</t>
-  </si>
-  <si>
-    <t>HHDV16</t>
-  </si>
-  <si>
-    <t>HHDV17</t>
-  </si>
-  <si>
-    <t>HHDV18</t>
-  </si>
-  <si>
-    <t>NM2</t>
-  </si>
-  <si>
-    <t>NM8</t>
-  </si>
-  <si>
-    <t>HHDV1</t>
-  </si>
-  <si>
-    <t>HHDV2</t>
-  </si>
-  <si>
-    <t>HHDV4</t>
-  </si>
-  <si>
-    <t>HHDV5</t>
-  </si>
-  <si>
-    <t>HHDV8</t>
-  </si>
-  <si>
-    <t>HHDV10</t>
-  </si>
-  <si>
-    <t>HHDV13</t>
-  </si>
-  <si>
-    <t>HHDV14</t>
-  </si>
-  <si>
-    <t>HHDV15</t>
-  </si>
-  <si>
-    <t>HHDV19</t>
-  </si>
-  <si>
-    <t>HHDV20</t>
-  </si>
-  <si>
-    <t>HHDV21</t>
-  </si>
-  <si>
-    <t>HHDV22</t>
-  </si>
-  <si>
-    <t>HHDV23</t>
-  </si>
-  <si>
-    <t>HHDV24</t>
-  </si>
-  <si>
-    <t>HHDV25</t>
-  </si>
-  <si>
-    <t>HHDV26</t>
-  </si>
-  <si>
-    <t>HHDV27</t>
-  </si>
-  <si>
-    <t>HHDV28</t>
-  </si>
-  <si>
-    <t>HHDV29</t>
-  </si>
-  <si>
-    <t>HHDV30</t>
-  </si>
-  <si>
-    <t>HHDV31</t>
-  </si>
-  <si>
-    <t>HHDV32</t>
-  </si>
-  <si>
-    <t>HHDV33</t>
-  </si>
-  <si>
-    <t>HHDV34</t>
-  </si>
-  <si>
-    <t>HHDV35</t>
-  </si>
-  <si>
-    <t>HHDV36</t>
-  </si>
-  <si>
     <t>Tỷ lệ chiết khấu (%)</t>
+  </si>
+  <si>
+    <t>Tính chất (*)</t>
+  </si>
+  <si>
+    <t>Ví dụ: Thêm thông tin Mã khách hàng thì tại dòng Mã trường dữ liệu/Tiện ích trên Hóa đơn Bách Khoa người dùng khai báo là NM 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nhập Tính chất:
+- Nhập 1 hoặc để trống: Hàng hóa, dịch vụ
+- Nhập 2: Khuyến mại
+- Nhập 3: Chiết khấu thương mại
+- Nhập 4: Ghi chú/Diễn giải
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SỬ DỤNG CỘT A KHI NHẬP KHẨU DỮ LIỆU TỪ EXCEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <r>
@@ -633,8 +510,19 @@
 - 10: 10%
 - KCT: Không chịu thuế
 - KKKNT: Không kê khai nộp thuế
-- AB.CD%: Khác. Trong đó: A, B, C, D là các số nguyên từ 0 đến 9.
+- KHAC:AB.CD%: Khác. 
+Trong đó: A, B, C, D là các số nguyên từ 0 đến 9.
 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ví dụ 1</t>
     </r>
     <r>
       <rPr>
@@ -643,8 +531,169 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Ví dụ: 3,5% có thể nhập là 03.50% hoặc 03.5% hoặc 3.5% hoặc 3.50%</t>
+      <t xml:space="preserve">: Muốn nhận thuế suất khác là 3,5% có thể nhập là KHAC:03.50% hoặc KHAC:03.5% hoặc KHAC:3.5% hoặc KHAC:3.50%
+</t>
     </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ví dụ 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Muốn nhận thuế suất KHÁC là 8% (KHÔNG PHẢI trường hợp được áp dụng thuế suất là 8%) có thể nhập là KHAC:08.00% hoặc KHAC:08.0% hoặc KHAC:8.00% hoặc KHAC:8.0% hoặc KHAC:8%</t>
+    </r>
+  </si>
+  <si>
+    <t>Lưu ý: Không áp dụng nguyên tắc ghép dữ liệu này cho thông tin Tính chất (mã trường dữ liệu HHDV4). Tính chất hàng hóa luôn lấy thông tin tại cột A</t>
+  </si>
+  <si>
+    <t>NM 1</t>
+  </si>
+  <si>
+    <t>NM 2</t>
+  </si>
+  <si>
+    <t>NM 3</t>
+  </si>
+  <si>
+    <t>NM 4</t>
+  </si>
+  <si>
+    <t>NM 5</t>
+  </si>
+  <si>
+    <t>NM 6</t>
+  </si>
+  <si>
+    <t>NM 7</t>
+  </si>
+  <si>
+    <t>NM 8</t>
+  </si>
+  <si>
+    <t>NM 9</t>
+  </si>
+  <si>
+    <t>NM 10</t>
+  </si>
+  <si>
+    <t>HHDV 1</t>
+  </si>
+  <si>
+    <t>HHDV 2</t>
+  </si>
+  <si>
+    <t>HHDV 3</t>
+  </si>
+  <si>
+    <t>HHDV 4</t>
+  </si>
+  <si>
+    <t>HHDV 5</t>
+  </si>
+  <si>
+    <t>HHDV 6</t>
+  </si>
+  <si>
+    <t>HHDV 7</t>
+  </si>
+  <si>
+    <t>HHDV 8</t>
+  </si>
+  <si>
+    <t>HHDV 9</t>
+  </si>
+  <si>
+    <t>HHDV 10</t>
+  </si>
+  <si>
+    <t>HHDV 11</t>
+  </si>
+  <si>
+    <t>HHDV 12</t>
+  </si>
+  <si>
+    <t>HHDV 13</t>
+  </si>
+  <si>
+    <t>HHDV 14</t>
+  </si>
+  <si>
+    <t>HHDV 15</t>
+  </si>
+  <si>
+    <t>HHDV 16</t>
+  </si>
+  <si>
+    <t>HHDV 17</t>
+  </si>
+  <si>
+    <t>HHDV 18</t>
+  </si>
+  <si>
+    <t>HHDV 19</t>
+  </si>
+  <si>
+    <t>HHDV 20</t>
+  </si>
+  <si>
+    <t>HHDV 21</t>
+  </si>
+  <si>
+    <t>HHDV 22</t>
+  </si>
+  <si>
+    <t>HHDV 23</t>
+  </si>
+  <si>
+    <t>HHDV 24</t>
+  </si>
+  <si>
+    <t>HHDV 25</t>
+  </si>
+  <si>
+    <t>HHDV 26</t>
+  </si>
+  <si>
+    <t>HHDV 27</t>
+  </si>
+  <si>
+    <t>HHDV 28</t>
+  </si>
+  <si>
+    <t>HHDV 29</t>
+  </si>
+  <si>
+    <t>HHDV 30</t>
+  </si>
+  <si>
+    <t>HHDV 31</t>
+  </si>
+  <si>
+    <t>HHDV 32</t>
+  </si>
+  <si>
+    <t>HHDV 33</t>
+  </si>
+  <si>
+    <t>HHDV 34</t>
+  </si>
+  <si>
+    <t>HHDV 35</t>
+  </si>
+  <si>
+    <t>HHDV 36</t>
   </si>
 </sst>
 </file>
@@ -655,7 +704,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000\ ;[Red]\-#,##0.0000\ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,6 +810,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -829,7 +892,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -908,6 +971,12 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,7 +1291,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1246,7 +1315,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1306,7 +1375,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1318,7 +1387,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1330,7 +1399,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1342,7 +1411,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1353,8 +1422,8 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>93</v>
+      <c r="A13" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1376,10 +1445,10 @@
     </row>
     <row r="15" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>86</v>
@@ -1388,28 +1457,28 @@
         <v>85</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>83</v>
@@ -1418,22 +1487,22 @@
         <v>84</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="S15" s="19" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="T15" s="19" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="U15" s="19" t="s">
         <v>154</v>
@@ -1445,18 +1514,18 @@
         <v>156</v>
       </c>
       <c r="X15" s="19" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>0</v>
@@ -1498,7 +1567,7 @@
         <v>14</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P16" s="26" t="s">
         <v>7</v>
@@ -1516,7 +1585,7 @@
         <v>15</v>
       </c>
       <c r="U16" s="28" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="V16" s="28" t="s">
         <v>27</v>
@@ -1535,7 +1604,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="860" yWindow="536" count="27">
+  <dataValidations xWindow="862" yWindow="600" count="27">
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Ngày hóa đơn." sqref="D16:D1048576" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên người mua hàng" sqref="E16:E1048576" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên khách hàng" sqref="F16:F1048576" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
@@ -1550,15 +1619,15 @@
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn vị tính." sqref="P16:P1048576" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT quy đổi của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Z16:Z1048576" xr:uid="{00000000-0002-0000-0100-00000C000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Y16:Y1048576" xr:uid="{00000000-0002-0000-0100-00000D000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập % Thuế GTGT:_x000a_- 0: 0%_x000a_- 5: 5%_x000a_- 8: 8%_x000a_- 10: 10%_x000a_- KCT: Không chịu thuế_x000a_- KKKNT: Không kê khai nộp thuế_x000a_- AB.CD%: Khác. Trong đó: A, B, C, D là các số nguyên từ 0 đến 9._x000a_Ví dụ: 3,5% có thể nhập là 03.50% hoặc 03.5% hoặc 3.5% hoặc 3.50%" sqref="X16:X1048576" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập % Thuế GTGT:_x000a_- 0: 0%_x000a_- 5: 5%_x000a_- 10: 10%_x000a_- KCT: Không chịu thuế_x000a_- KKKNT: Không kê khai nộp thuế_x000a_- KHAC:AB.CD%: Khác" sqref="X16:X1048576" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền quy đổi_x000a_Tối đa 15 ký tự" sqref="T16:T1048576" xr:uid="{00000000-0002-0000-0100-00000F000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền_x000a_Tối đa 15 ký tự" sqref="S16" xr:uid="{00000000-0002-0000-0100-000010000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền_x000a_Tối đa 15 ký tự" sqref="S16:S1048576" xr:uid="{00000000-0002-0000-0100-000010000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn giá_x000a_Tối đa 15 ký tự" sqref="R16:R1048576" xr:uid="{00000000-0002-0000-0100-000011000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số lượng_x000a_Tối đa 15 ký tự" sqref="Q16:Q1048576" xr:uid="{00000000-0002-0000-0100-000012000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã trường dữ liệu/Tiện ích tương ứng trên Hóa đơn Bách Khoa" sqref="C15:Z15" xr:uid="{00000000-0002-0000-0100-000013000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập số thứ tự của hóa đơn._x000a_Lưu ý: Mỗi số thứ tự sẽ tương ứng với 1 hóa đơn_x000a_Trường dữ liệu bắt buộc._x000a_Không để trống." sqref="B16:B1048576" xr:uid="{00000000-0002-0000-0100-000014000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nhập Mã nhân viên bán hàng._x000a_Lưu ý:_x000a_Để trống nếu không thiết lập Tùy chọn/Quản lý nhân viên bán hàng trên hóa đơn._x000a_Nhập theo danh mục đã tạo tại Danh mục/Nhân viên" sqref="C16:C1048576" xr:uid="{00000000-0002-0000-0100-000015000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tính chất._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống._x000a_Nhập 1: Hàng hóa, dịch vụ._x000a_Nhập 2: Khuyến mại._x000a_Nhập 3: Chiết khấu._x000a_Nhập 4: Ghi chú/diễn giải._x000a_" sqref="A15:A1048576" xr:uid="{00000000-0002-0000-0100-000016000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tính chất._x000a_- Nhập 1 hoặc Để trống: Hàng hóa, dịch vụ_x000a_- Nhập 2: Khuyến mại_x000a_- Nhập 3: Chiết khấu thương mại_x000a_- Nhập 4: Ghi chú/diễn giải._x000a_" sqref="A15:A1048576" xr:uid="{00000000-0002-0000-0100-000016000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Hình thức thanh toán_x000a_Trường dữ liệu bắt buộc._x000a_Không để trống._x000a_Nhập 1: Tiền mặt_x000a_Nhập 2: Chuyển khoản_x000a_Nhập 3: Tiền mặt/Chuyển khoản_x000a_Nhập 4: Đối trừ công nợ_x000a_Nhập 5: Không thu tiền_x000a_Nhập 6: Khác" sqref="I16:I1048576" xr:uid="{00000000-0002-0000-0100-000017000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền chiết khấu quy đổi._x000a_Tối đa 15 ký tự." sqref="W16:W1048576" xr:uid="{00000000-0002-0000-0100-000018000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền chiết khấu._x000a_Tối đa 15 ký tự" sqref="V16:V1048576" xr:uid="{00000000-0002-0000-0100-000019000000}"/>
@@ -1576,7 +1645,7 @@
   </sheetPr>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -1590,17 +1659,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,13 +1680,13 @@
         <v>36</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1636,7 +1705,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>86</v>
@@ -1653,7 +1722,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>4</v>
@@ -1667,13 +1736,13 @@
         <v>37</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,7 +1750,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>12</v>
@@ -1695,7 +1764,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>2</v>
@@ -1709,13 +1778,13 @@
         <v>37</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,7 +1792,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>6</v>
@@ -1737,7 +1806,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>5</v>
@@ -1751,7 +1820,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>39</v>
@@ -1765,7 +1834,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>40</v>
@@ -1779,7 +1848,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>41</v>
@@ -1821,10 +1890,10 @@
         <v>38</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>77</v>
@@ -1835,7 +1904,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>21</v>
@@ -1849,26 +1918,26 @@
         <v>38</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="32" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1877,7 +1946,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>23</v>
@@ -1891,7 +1960,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>7</v>
@@ -1905,7 +1974,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>8</v>
@@ -1919,7 +1988,7 @@
         <v>38</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>24</v>
@@ -1933,7 +2002,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>9</v>
@@ -1947,7 +2016,7 @@
         <v>38</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>25</v>
@@ -1961,7 +2030,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>10</v>
@@ -1975,7 +2044,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>15</v>
@@ -2026,18 +2095,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2045,7 +2114,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>11</v>
@@ -2059,7 +2128,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>16</v>
@@ -2073,13 +2142,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2087,13 +2156,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2101,13 +2170,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2115,13 +2184,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2129,13 +2198,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2143,13 +2212,13 @@
         <v>38</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2157,10 +2226,10 @@
         <v>38</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>65</v>
@@ -2171,10 +2240,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>77</v>
@@ -2185,13 +2254,13 @@
         <v>38</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2199,13 +2268,13 @@
         <v>38</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2213,13 +2282,13 @@
         <v>38</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2227,13 +2296,13 @@
         <v>38</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2241,13 +2310,13 @@
         <v>38</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2255,13 +2324,13 @@
         <v>38</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2269,13 +2338,13 @@
         <v>38</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2283,13 +2352,13 @@
         <v>38</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2297,13 +2366,13 @@
         <v>38</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2311,13 +2380,13 @@
         <v>38</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">

--- a/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bill-back-end\API\wwwroot\docs\Template\ImportHoaDon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4288755-BB6E-49E6-AB8D-CD4FF94C3652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B8442D-BB9E-4310-B28F-C75B45922845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,18 @@
     <sheet name="Hóa đơn giá trị gia tăng" sheetId="1" r:id="rId1"/>
     <sheet name="Nguyên tắc ghép dữ liệu" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1619,7 +1627,7 @@
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn vị tính." sqref="P16:P1048576" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT quy đổi của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Z16:Z1048576" xr:uid="{00000000-0002-0000-0100-00000C000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Y16:Y1048576" xr:uid="{00000000-0002-0000-0100-00000D000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập % Thuế GTGT:_x000a_- 0: 0%_x000a_- 5: 5%_x000a_- 10: 10%_x000a_- KCT: Không chịu thuế_x000a_- KKKNT: Không kê khai nộp thuế_x000a_- KHAC:AB.CD%: Khác" sqref="X16:X1048576" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập % Thuế GTGT:_x000a_- 0: 0%_x000a_- 5: 5%_x000a_- 8: 8%_x000a_- 10: 10%_x000a_- KCT: Không chịu thuế_x000a_- KKKNT: Không kê khai nộp thuế_x000a_- KHAC:AB.CD%: Khác. _x000a_Trong đó: A, B, C, D là các số nguyên từ 0 đến 9." sqref="X16:X1048576" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền quy đổi_x000a_Tối đa 15 ký tự" sqref="T16:T1048576" xr:uid="{00000000-0002-0000-0100-00000F000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền_x000a_Tối đa 15 ký tự" sqref="S16:S1048576" xr:uid="{00000000-0002-0000-0100-000010000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn giá_x000a_Tối đa 15 ký tự" sqref="R16:R1048576" xr:uid="{00000000-0002-0000-0100-000011000000}"/>
@@ -1645,8 +1653,8 @@
   </sheetPr>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bill-back-end\API\wwwroot\docs\Template\ImportHoaDon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B8442D-BB9E-4310-B28F-C75B45922845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A0A597-EB14-417A-BB41-1A8DF19BC464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1653,8 +1653,8 @@
   </sheetPr>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bill-back-end\API\wwwroot\docs\Template\ImportHoaDon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A0A597-EB14-417A-BB41-1A8DF19BC464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8DD9E0-B23B-408E-8F2C-A0C1CADE2AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hóa đơn giá trị gia tăng" sheetId="1" r:id="rId1"/>
@@ -1269,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1612,7 +1612,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="862" yWindow="600" count="27">
+  <dataValidations xWindow="368" yWindow="332" count="27">
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Ngày hóa đơn." sqref="D16:D1048576" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên người mua hàng" sqref="E16:E1048576" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên khách hàng" sqref="F16:F1048576" xr:uid="{00000000-0002-0000-0100-000002000000}"/>

--- a/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bill-back-end\API\wwwroot\docs\Template\ImportHoaDon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8DD9E0-B23B-408E-8F2C-A0C1CADE2AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8D9C0F-710B-4AB9-BDE5-28D3F107A966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,9 +221,6 @@
     <t>Nhập Ngày hóa đơn</t>
   </si>
   <si>
-    <t>Nhập Hình thức thanh toán</t>
-  </si>
-  <si>
     <t>Nhập Tài khoản ngân hàng</t>
   </si>
   <si>
@@ -234,19 +231,6 @@
   </si>
   <si>
     <t>Nhập Mã nhân viên bán hàng</t>
-  </si>
-  <si>
-    <t>Nhập Tên người mua hàng</t>
-  </si>
-  <si>
-    <t>Nhập Tên khách hàng</t>
-  </si>
-  <si>
-    <t>Nhập Địa chỉ khách hàng</t>
-  </si>
-  <si>
-    <t>Nhập Số điện thoại người nhận hóa đơn.
-Nếu nhiều số điện thoại thì mỗi số điện thoại cách nhau bởi dấu ";"</t>
   </si>
   <si>
     <t>Nhập Đơn vị tính</t>
@@ -288,13 +272,6 @@
   <si>
     <t>Nhập Tổng tiền thuế GTGT quy đổi của hóa đơn
 Tối đa 15 ký tự</t>
-  </si>
-  <si>
-    <t>Nhập Email người nhận hóa đơn.
-Nếu nhiều Email thì mỗi Email cách nhau bởi dấu ";"</t>
-  </si>
-  <si>
-    <t>Nhập Mã hàng hóa, dịch vụ</t>
   </si>
   <si>
     <t>LOAITIEN</t>
@@ -453,11 +430,6 @@
   <si>
     <t>Nhập Mã số thuế
 Tối đa 14 ký tự</t>
-  </si>
-  <si>
-    <t>Nhập Tên hàng hóa, dịch vụ
-Trường dữ liệu bắt buộc.
-Không để trống</t>
   </si>
   <si>
     <t>- Dữ liệu thuộc nhóm: Thông tin nhân viên bán hàng, Thông tin ngày hóa đơn, Thông tin người mua hàng thì nhập tại dòng đầu tiên của hóa đơn tương ứng</t>
@@ -702,6 +674,48 @@
   </si>
   <si>
     <t>HHDV 36</t>
+  </si>
+  <si>
+    <t>Nhập Mã hàng hóa, dịch vụ
+Tối đa 50 ký tự</t>
+  </si>
+  <si>
+    <t>Nhập Tên hàng hóa, dịch vụ
+Trường dữ liệu bắt buộc.
+Không để trống, tối đa 400 ký tự</t>
+  </si>
+  <si>
+    <t>Nhập Tên khách hàng
+Tối đa 400 ký tự</t>
+  </si>
+  <si>
+    <t>Nhập Tên người mua hàng
+Tối đa 100 ký tự</t>
+  </si>
+  <si>
+    <t>Nhập Số điện thoại người nhận hóa đơn.
+Nếu nhiều số điện thoại thì mỗi số điện thoại cách nhau bởi dấu ";"
+Tối đa 20 ký tự</t>
+  </si>
+  <si>
+    <t>Nhập Email người nhận hóa đơn.
+Nếu nhiều Email thì mỗi Email cách nhau bởi dấu ";"
+Tối đa 50 ký tự</t>
+  </si>
+  <si>
+    <t>Nhập Hình thức thanh toán
+Trường dữ liệu bắt buộc. Không để trống.
+Nhập 1: Tiền mặt
+Nhập 2: Chuyển khoản
+Nhập 3: Tiền mặt/Chuyển khoản
+Nhập 4: Đối trừ công nợ
+Nhập 5: Không thu tiền
+Nhập 6: Khác
+Hoặc nhập hình thức thanh toán tối đa 50 ký tự.</t>
+  </si>
+  <si>
+    <t>Nhập Địa chỉ khách hàng
+Tối đa 400 ký tự</t>
   </si>
 </sst>
 </file>
@@ -1266,10 +1280,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1299,7 +1313,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1323,7 +1337,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1383,7 +1397,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1395,7 +1409,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1407,7 +1421,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1419,7 +1433,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1431,7 +1445,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1453,87 +1467,87 @@
     </row>
     <row r="15" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E15" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="19" t="s">
+      <c r="L15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="K15" s="19" t="s">
+      <c r="P15" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q15" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="L15" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="O15" s="19" t="s">
+      <c r="R15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="S15" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="P15" s="19" t="s">
+      <c r="T15" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="U15" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="V15" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="Q15" s="19" t="s">
+      <c r="W15" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="R15" s="19" t="s">
+      <c r="X15" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y15" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="S15" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="T15" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="U15" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="V15" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="W15" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="X15" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y15" s="19" t="s">
-        <v>158</v>
-      </c>
       <c r="Z15" s="19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>0</v>
@@ -1575,7 +1589,7 @@
         <v>14</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P16" s="26" t="s">
         <v>7</v>
@@ -1593,7 +1607,7 @@
         <v>15</v>
       </c>
       <c r="U16" s="28" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="V16" s="28" t="s">
         <v>27</v>
@@ -1612,34 +1626,38 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="368" yWindow="332" count="27">
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Ngày hóa đơn." sqref="D16:D1048576" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên người mua hàng" sqref="E16:E1048576" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên khách hàng" sqref="F16:F1048576" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Địa chỉ" sqref="G16:G1048576" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã số thuế_x000a_Tối đa 14 ký tự" sqref="H16:H1048576" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Email người nhận hóa đơn._x000a_Nếu nhiều Email thì mỗi Email cách nhau bởi dấu &quot;;&quot;" sqref="J16:J1048576" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số tài khoản ngân hàng" sqref="K16:K1048576" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên ngân hàng" sqref="L16:L1048576" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
-    <dataValidation showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã loại tiền._x000a_Nếu để trống ngầm định là VND." sqref="M16:M1048576" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tỷ giá_x000a_Tối đa 15 ký tự" sqref="N16:N1048576" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên hàng hóa, dịch vụ._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống" sqref="O16:O1048576" xr:uid="{00000000-0002-0000-0100-00000A000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn vị tính." sqref="P16:P1048576" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT quy đổi của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Z16:Z1048576" xr:uid="{00000000-0002-0000-0100-00000C000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Y16:Y1048576" xr:uid="{00000000-0002-0000-0100-00000D000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập % Thuế GTGT:_x000a_- 0: 0%_x000a_- 5: 5%_x000a_- 8: 8%_x000a_- 10: 10%_x000a_- KCT: Không chịu thuế_x000a_- KKKNT: Không kê khai nộp thuế_x000a_- KHAC:AB.CD%: Khác. _x000a_Trong đó: A, B, C, D là các số nguyên từ 0 đến 9." sqref="X16:X1048576" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền quy đổi_x000a_Tối đa 15 ký tự" sqref="T16:T1048576" xr:uid="{00000000-0002-0000-0100-00000F000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền_x000a_Tối đa 15 ký tự" sqref="S16:S1048576" xr:uid="{00000000-0002-0000-0100-000010000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn giá_x000a_Tối đa 15 ký tự" sqref="R16:R1048576" xr:uid="{00000000-0002-0000-0100-000011000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số lượng_x000a_Tối đa 15 ký tự" sqref="Q16:Q1048576" xr:uid="{00000000-0002-0000-0100-000012000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã trường dữ liệu/Tiện ích tương ứng trên Hóa đơn Bách Khoa" sqref="C15:Z15" xr:uid="{00000000-0002-0000-0100-000013000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập số thứ tự của hóa đơn._x000a_Lưu ý: Mỗi số thứ tự sẽ tương ứng với 1 hóa đơn_x000a_Trường dữ liệu bắt buộc._x000a_Không để trống." sqref="B16:B1048576" xr:uid="{00000000-0002-0000-0100-000014000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nhập Mã nhân viên bán hàng._x000a_Lưu ý:_x000a_Để trống nếu không thiết lập Tùy chọn/Quản lý nhân viên bán hàng trên hóa đơn._x000a_Nhập theo danh mục đã tạo tại Danh mục/Nhân viên" sqref="C16:C1048576" xr:uid="{00000000-0002-0000-0100-000015000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tính chất._x000a_- Nhập 1 hoặc Để trống: Hàng hóa, dịch vụ_x000a_- Nhập 2: Khuyến mại_x000a_- Nhập 3: Chiết khấu thương mại_x000a_- Nhập 4: Ghi chú/diễn giải._x000a_" sqref="A15:A1048576" xr:uid="{00000000-0002-0000-0100-000016000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Hình thức thanh toán_x000a_Trường dữ liệu bắt buộc._x000a_Không để trống._x000a_Nhập 1: Tiền mặt_x000a_Nhập 2: Chuyển khoản_x000a_Nhập 3: Tiền mặt/Chuyển khoản_x000a_Nhập 4: Đối trừ công nợ_x000a_Nhập 5: Không thu tiền_x000a_Nhập 6: Khác" sqref="I16:I1048576" xr:uid="{00000000-0002-0000-0100-000017000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền chiết khấu quy đổi._x000a_Tối đa 15 ký tự." sqref="W16:W1048576" xr:uid="{00000000-0002-0000-0100-000018000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền chiết khấu._x000a_Tối đa 15 ký tự" sqref="V16:V1048576" xr:uid="{00000000-0002-0000-0100-000019000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tỷ lệ chiết khấu (%)." sqref="U16:U1048576" xr:uid="{00000000-0002-0000-0100-00001A000000}"/>
+  <dataValidations xWindow="368" yWindow="332" count="31">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Ngày hóa đơn." sqref="D16:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên người mua hàng" sqref="E2682:E1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên khách hàng" sqref="F2682:F1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Địa chỉ khách hàng_x000a_Tối đa 400 ký tự" sqref="G16:G1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã số thuế_x000a_Tối đa 14 ký tự" sqref="H16:H1048576" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Email người nhận hóa đơn._x000a_Nếu nhiều Email thì mỗi Email cách nhau bởi dấu &quot;;&quot;" sqref="J2684:J1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số tài khoản ngân hàng" sqref="K16:K1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên ngân hàng" sqref="L16:L1048576" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã loại tiền._x000a_Nếu để trống ngầm định là VND." sqref="M16:M1048576" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tỷ giá_x000a_Tối đa 15 ký tự" sqref="N16:N1048576" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên hàng hóa, dịch vụ._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống" sqref="O2694:O1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn vị tính." sqref="P16:P1048576" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT quy đổi của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Z16:Z1048576" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Y16:Y1048576" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập % Thuế GTGT:_x000a_- 0: 0%_x000a_- 5: 5%_x000a_- 8: 8%_x000a_- 10: 10%_x000a_- KCT: Không chịu thuế_x000a_- KKKNT: Không kê khai nộp thuế_x000a_- KHAC:AB.CD%: Khác. _x000a_Trong đó: A, B, C, D là các số nguyên từ 0 đến 9." sqref="X16:X1048576" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền quy đổi_x000a_Tối đa 15 ký tự" sqref="T16:T1048576" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Thành tiền_x000a_Tối đa 15 ký tự" sqref="S16:S1048576" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn giá_x000a_Tối đa 15 ký tự" sqref="R16:R1048576" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Số lượng_x000a_Tối đa 15 ký tự" sqref="Q16:Q1048576" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã trường dữ liệu/Tiện ích tương ứng trên Hóa đơn Bách Khoa" sqref="C15:Z15" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập số thứ tự của hóa đơn._x000a_Lưu ý: Mỗi số thứ tự sẽ tương ứng với 1 hóa đơn_x000a_Trường dữ liệu bắt buộc._x000a_Không để trống." sqref="B16:B1048576" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nhập Mã nhân viên bán hàng._x000a_Lưu ý:_x000a_Để trống nếu không thiết lập Tùy chọn/Quản lý nhân viên bán hàng trên hóa đơn._x000a_Nhập theo danh mục đã tạo tại Danh mục/Nhân viên" sqref="C16:C1048576" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tính chất._x000a_- Nhập 1 hoặc Để trống: Hàng hóa, dịch vụ_x000a_- Nhập 2: Khuyến mại_x000a_- Nhập 3: Chiết khấu thương mại_x000a_- Nhập 4: Ghi chú/diễn giải._x000a_" sqref="A15:A1048576" xr:uid="{00000000-0002-0000-0000-000016000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Hình thức thanh toán_x000a_Trường dữ liệu bắt buộc._x000a_Không để trống._x000a_Nhập 1: Tiền mặt_x000a_Nhập 2: Chuyển khoản_x000a_Nhập 3: Tiền mặt/Chuyển khoản_x000a_Nhập 4: Đối trừ công nợ_x000a_Nhập 5: Không thu tiền_x000a_Nhập 6: Khác_x000a_Hoặc nhập hình thức thanh toán tối đa 50 ký tự." sqref="I16:I1048576" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền chiết khấu quy đổi._x000a_Tối đa 15 ký tự." sqref="W16:W1048576" xr:uid="{00000000-0002-0000-0000-000018000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền chiết khấu._x000a_Tối đa 15 ký tự" sqref="V16:V1048576" xr:uid="{00000000-0002-0000-0000-000019000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tỷ lệ chiết khấu (%)." sqref="U16:U1048576" xr:uid="{00000000-0002-0000-0000-00001A000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên hàng hóa, dịch vụ._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống, tối đa 400 ký tự" sqref="O16:O2693" xr:uid="{00000000-0002-0000-0000-00001B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Email người nhận hóa đơn._x000a_Nếu nhiều Email thì mỗi Email cách nhau bởi dấu &quot;;&quot;_x000a_Tối đa 50 ký tự" sqref="J16:J2683" xr:uid="{00000000-0002-0000-0000-00001C000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên người mua hàng_x000a_Tối đa 100 ký tự" sqref="E16:E2681" xr:uid="{00000000-0002-0000-0000-00001D000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên khách hàng_x000a_Tối đa 400 ký tự" sqref="F16:F2681" xr:uid="{00000000-0002-0000-0000-00001E000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1647,13 +1665,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1667,17 +1685,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1688,13 +1706,13 @@
         <v>36</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1702,7 +1720,7 @@
         <v>55</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1</v>
@@ -1713,30 +1731,30 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>66</v>
+      <c r="D9" s="11" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1744,41 +1762,41 @@
         <v>37</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>68</v>
+      <c r="D12" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1786,55 +1804,55 @@
         <v>37</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1842,13 +1860,13 @@
         <v>37</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1856,13 +1874,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1870,7 +1888,7 @@
         <v>42</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>13</v>
@@ -1884,7 +1902,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>14</v>
@@ -1898,27 +1916,27 @@
         <v>38</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1926,13 +1944,13 @@
         <v>38</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -1940,13 +1958,13 @@
         <v>38</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1954,13 +1972,13 @@
         <v>38</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1968,13 +1986,13 @@
         <v>38</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1982,13 +2000,13 @@
         <v>38</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1996,13 +2014,13 @@
         <v>38</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2010,13 +2028,13 @@
         <v>38</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2024,13 +2042,13 @@
         <v>38</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2038,13 +2056,13 @@
         <v>38</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2052,13 +2070,13 @@
         <v>38</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2066,13 +2084,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2080,13 +2098,13 @@
         <v>38</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2094,13 +2112,13 @@
         <v>38</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -2108,13 +2126,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2122,13 +2140,13 @@
         <v>38</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2136,13 +2154,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2150,13 +2168,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2164,13 +2182,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2178,13 +2196,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2192,13 +2210,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2206,13 +2224,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2220,13 +2238,13 @@
         <v>38</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2234,13 +2252,13 @@
         <v>38</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2248,13 +2266,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2262,13 +2280,13 @@
         <v>38</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2276,13 +2294,13 @@
         <v>38</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2290,13 +2308,13 @@
         <v>38</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2304,13 +2322,13 @@
         <v>38</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2318,13 +2336,13 @@
         <v>38</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2332,13 +2350,13 @@
         <v>38</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2346,13 +2364,13 @@
         <v>38</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2360,13 +2378,13 @@
         <v>38</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2374,13 +2392,13 @@
         <v>38</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2388,13 +2406,13 @@
         <v>38</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">

--- a/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bill-back-end\API\wwwroot\docs\Template\ImportHoaDon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8D9C0F-710B-4AB9-BDE5-28D3F107A966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07364D16-0AF7-4C40-9975-DB90AE4C290A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hóa đơn giá trị gia tăng" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Hướng dẫn:</t>
-  </si>
-  <si>
-    <t>- Các cột có dấu (*) là nhưng cột bắt buộc</t>
   </si>
   <si>
     <t>- Cột Tên khách hàng và cột Người mua hàng là bắt buộc phải khai báo 1 trong 2 cột này</t>
@@ -716,6 +713,9 @@
   <si>
     <t>Nhập Địa chỉ khách hàng
 Tối đa 400 ký tự</t>
+  </si>
+  <si>
+    <t>- Các cột có dấu (*) là những cột bắt buộc</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1467,93 +1467,93 @@
     </row>
     <row r="15" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="H15" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="I15" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="J15" s="19" t="s">
-        <v>130</v>
-      </c>
       <c r="K15" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="L15" s="19" t="s">
-        <v>133</v>
-      </c>
       <c r="M15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="19" t="s">
-        <v>77</v>
-      </c>
       <c r="O15" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P15" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q15" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="Q15" s="19" t="s">
-        <v>140</v>
-      </c>
       <c r="R15" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S15" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="T15" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="T15" s="19" t="s">
+      <c r="U15" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="U15" s="19" t="s">
+      <c r="V15" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="V15" s="19" t="s">
+      <c r="W15" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="W15" s="19" t="s">
+      <c r="X15" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="X15" s="19" t="s">
+      <c r="Y15" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="Y15" s="19" t="s">
+      <c r="Z15" s="19" t="s">
         <v>150</v>
-      </c>
-      <c r="Z15" s="19" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>1</v>
@@ -1577,10 +1577,10 @@
         <v>5</v>
       </c>
       <c r="K16" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="L16" s="25" t="s">
-        <v>41</v>
       </c>
       <c r="M16" s="25" t="s">
         <v>13</v>
@@ -1589,7 +1589,7 @@
         <v>14</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P16" s="26" t="s">
         <v>7</v>
@@ -1607,16 +1607,16 @@
         <v>15</v>
       </c>
       <c r="U16" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V16" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="W16" s="28" t="s">
-        <v>28</v>
-      </c>
       <c r="X16" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y16" s="29" t="s">
         <v>11</v>
@@ -1685,17 +1685,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1703,716 +1703,716 @@
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">

--- a/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_Gia_Tri_Gia_Tang_Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bill-back-end\API\wwwroot\docs\Template\ImportHoaDon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07364D16-0AF7-4C40-9975-DB90AE4C290A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2871E7-3CD2-4F8B-92B7-573B00F628DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,11 +677,6 @@
 Tối đa 50 ký tự</t>
   </si>
   <si>
-    <t>Nhập Tên hàng hóa, dịch vụ
-Trường dữ liệu bắt buộc.
-Không để trống, tối đa 400 ký tự</t>
-  </si>
-  <si>
     <t>Nhập Tên khách hàng
 Tối đa 400 ký tự</t>
   </si>
@@ -716,6 +711,11 @@
   </si>
   <si>
     <t>- Các cột có dấu (*) là những cột bắt buộc</t>
+  </si>
+  <si>
+    <t>Nhập Tên hàng hóa, dịch vụ
+Trường dữ liệu bắt buộc.
+Không để trống, tối đa 500 ký tự</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1626,7 +1626,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="368" yWindow="332" count="31">
+  <dataValidations xWindow="368" yWindow="332" count="30">
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Ngày hóa đơn." sqref="D16:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên người mua hàng" sqref="E2682:E1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên khách hàng" sqref="F2682:F1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
@@ -1637,7 +1637,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên ngân hàng" sqref="L16:L1048576" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã loại tiền._x000a_Nếu để trống ngầm định là VND." sqref="M16:M1048576" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tỷ giá_x000a_Tối đa 15 ký tự" sqref="N16:N1048576" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên hàng hóa, dịch vụ._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống" sqref="O2694:O1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Đơn vị tính." sqref="P16:P1048576" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT quy đổi của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Z16:Z1048576" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền thuế GTGT của hóa đơn_x000a_Tối đa 15 ký tự" sqref="Y16:Y1048576" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
@@ -1654,10 +1653,10 @@
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền chiết khấu quy đổi._x000a_Tối đa 15 ký tự." sqref="W16:W1048576" xr:uid="{00000000-0002-0000-0000-000018000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tiền chiết khấu._x000a_Tối đa 15 ký tự" sqref="V16:V1048576" xr:uid="{00000000-0002-0000-0000-000019000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tỷ lệ chiết khấu (%)." sqref="U16:U1048576" xr:uid="{00000000-0002-0000-0000-00001A000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên hàng hóa, dịch vụ._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống, tối đa 400 ký tự" sqref="O16:O2693" xr:uid="{00000000-0002-0000-0000-00001B000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Email người nhận hóa đơn._x000a_Nếu nhiều Email thì mỗi Email cách nhau bởi dấu &quot;;&quot;_x000a_Tối đa 50 ký tự" sqref="J16:J2683" xr:uid="{00000000-0002-0000-0000-00001C000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên người mua hàng_x000a_Tối đa 100 ký tự" sqref="E16:E2681" xr:uid="{00000000-0002-0000-0000-00001D000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên khách hàng_x000a_Tối đa 400 ký tự" sqref="F16:F2681" xr:uid="{00000000-0002-0000-0000-00001E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên hàng hóa, dịch vụ._x000a_Trường dữ liệu bắt buộc._x000a_Không để trống, tối đa 500 ký tự" sqref="O16:O1048576" xr:uid="{254CDEFD-0400-460C-8D4E-7F6AE9127A2F}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1671,7 +1670,7 @@
   </sheetPr>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1754,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1782,7 +1781,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1796,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1824,7 +1823,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1838,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1852,7 +1851,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,7 +1949,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
